--- a/Work/ExcelConnector/ExcelConnector/bin/Debug/Book1.xlsx
+++ b/Work/ExcelConnector/ExcelConnector/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd0120287c4f145ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbbc110c4c9a44c2a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8318f14164c04794"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1c5deb81bab540ae"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{17c94cfa-b830-465f-8abe-5118065c69bf}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{22d436ee-65f5-4404-a389-0249318fe39c}">
   <we:reference id="26172a8e-65ae-40c8-b660-cd2df5c9ebe0" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/Work/ExcelConnector/ExcelConnector/bin/Debug/Book1.xlsx
+++ b/Work/ExcelConnector/ExcelConnector/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbbc110c4c9a44c2a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1e10b521f498494f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1c5deb81bab540ae"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R039e3ffa68384b08"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{22d436ee-65f5-4404-a389-0249318fe39c}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e164ccd9-a278-4be1-be5e-4702ab2a025c}">
   <we:reference id="26172a8e-65ae-40c8-b660-cd2df5c9ebe0" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
